--- a/input/区聘专项专技/聘用专项3月--扣款明细.xlsx
+++ b/input/区聘专项专技/聘用专项3月--扣款明细.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xumingyang/app/财政工资处理系统_部署包 2/input/区聘专项专技/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786EB037-5797-4F41-B24B-6F72F1395C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8E480-3BDE-0541-9B4E-E613C247189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>个人缴养老保险费8%</t>
   </si>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>人员姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区聘专项原投服扣款明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年 9 月</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -519,98 +527,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>519.28</v>
-      </c>
-      <c r="C2">
-        <v>129.82</v>
-      </c>
-      <c r="D2">
-        <v>25.96</v>
-      </c>
-      <c r="E2">
-        <v>779</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>75.989999999999995</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>482.8</v>
-      </c>
-      <c r="C3">
-        <v>120.7</v>
-      </c>
-      <c r="D3">
-        <v>24.14</v>
-      </c>
-      <c r="E3">
-        <v>724</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>482.8</v>
+        <v>519.28</v>
       </c>
       <c r="C4">
-        <v>120.7</v>
+        <v>129.82</v>
       </c>
       <c r="D4">
-        <v>24.14</v>
+        <v>25.96</v>
       </c>
       <c r="E4">
-        <v>724</v>
+        <v>779</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -619,12 +585,12 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>75.989999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>482.8</v>
@@ -650,19 +616,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>415.44</v>
+        <v>482.8</v>
       </c>
       <c r="C6">
-        <v>103.86</v>
+        <v>120.7</v>
       </c>
       <c r="D6">
-        <v>20.77</v>
+        <v>24.14</v>
       </c>
       <c r="E6">
-        <v>623</v>
+        <v>724</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -676,7 +642,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>482.8</v>
@@ -702,19 +668,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>482.8</v>
+        <v>415.44</v>
       </c>
       <c r="C8">
-        <v>120.7</v>
+        <v>103.86</v>
       </c>
       <c r="D8">
-        <v>24.14</v>
+        <v>20.77</v>
       </c>
       <c r="E8">
-        <v>724</v>
+        <v>623</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -728,7 +694,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>482.8</v>
@@ -754,19 +720,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>296.08</v>
+        <v>482.8</v>
       </c>
       <c r="C10">
-        <v>74.02</v>
+        <v>120.7</v>
       </c>
       <c r="D10">
-        <v>14.8</v>
+        <v>24.14</v>
       </c>
       <c r="E10">
-        <v>444</v>
+        <v>724</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -780,19 +746,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>415.44</v>
+        <v>482.8</v>
       </c>
       <c r="C11">
-        <v>103.86</v>
+        <v>120.7</v>
       </c>
       <c r="D11">
-        <v>20.77</v>
+        <v>24.14</v>
       </c>
       <c r="E11">
-        <v>623</v>
+        <v>724</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -801,24 +767,24 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>37.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>289.36</v>
+        <v>296.08</v>
       </c>
       <c r="C12">
-        <v>72.34</v>
+        <v>74.02</v>
       </c>
       <c r="D12">
-        <v>14.47</v>
+        <v>14.8</v>
       </c>
       <c r="E12">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -832,19 +798,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>482.8</v>
+        <v>415.44</v>
       </c>
       <c r="C13">
-        <v>120.7</v>
+        <v>103.86</v>
       </c>
       <c r="D13">
-        <v>24.14</v>
+        <v>20.77</v>
       </c>
       <c r="E13">
-        <v>724</v>
+        <v>623</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -853,24 +819,24 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>465.6</v>
+        <v>289.36</v>
       </c>
       <c r="C14">
-        <v>116.4</v>
+        <v>72.34</v>
       </c>
       <c r="D14">
-        <v>23.28</v>
+        <v>14.47</v>
       </c>
       <c r="E14">
-        <v>698</v>
+        <v>434</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -884,19 +850,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>383.6</v>
+        <v>482.8</v>
       </c>
       <c r="C15">
-        <v>95.9</v>
+        <v>120.7</v>
       </c>
       <c r="D15">
-        <v>19.18</v>
+        <v>24.14</v>
       </c>
       <c r="E15">
-        <v>575</v>
+        <v>724</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -910,19 +876,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>353.36</v>
+        <v>465.6</v>
       </c>
       <c r="C16">
-        <v>88.34</v>
+        <v>116.4</v>
       </c>
       <c r="D16">
-        <v>17.670000000000002</v>
+        <v>23.28</v>
       </c>
       <c r="E16">
-        <v>530</v>
+        <v>698</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -936,19 +902,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>296.08</v>
+        <v>383.6</v>
       </c>
       <c r="C17">
-        <v>74.02</v>
+        <v>95.9</v>
       </c>
       <c r="D17">
-        <v>14.8</v>
+        <v>19.18</v>
       </c>
       <c r="E17">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -962,19 +928,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>296.08</v>
+        <v>353.36</v>
       </c>
       <c r="C18">
-        <v>74.02</v>
+        <v>88.34</v>
       </c>
       <c r="D18">
-        <v>14.8</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="E18">
-        <v>444</v>
+        <v>530</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -988,7 +954,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>296.08</v>
@@ -1014,19 +980,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>766.8</v>
+        <v>296.08</v>
       </c>
       <c r="C20">
-        <v>191.7</v>
+        <v>74.02</v>
       </c>
       <c r="D20">
-        <v>38.340000000000003</v>
+        <v>14.8</v>
       </c>
       <c r="E20">
-        <v>1150</v>
+        <v>444</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1035,24 +1001,24 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>158.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>774.4</v>
+        <v>296.08</v>
       </c>
       <c r="C21">
-        <v>193.6</v>
+        <v>74.02</v>
       </c>
       <c r="D21">
-        <v>38.72</v>
+        <v>14.8</v>
       </c>
       <c r="E21">
-        <v>1162</v>
+        <v>444</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1061,24 +1027,24 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>46.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>774.4</v>
+        <v>766.8</v>
       </c>
       <c r="C22">
-        <v>193.6</v>
+        <v>191.7</v>
       </c>
       <c r="D22">
-        <v>38.72</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="E22">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1087,24 +1053,24 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>172.56</v>
+        <v>158.38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>704.96</v>
+        <v>774.4</v>
       </c>
       <c r="C23">
-        <v>176.24</v>
+        <v>193.6</v>
       </c>
       <c r="D23">
-        <v>35.25</v>
+        <v>38.72</v>
       </c>
       <c r="E23">
-        <v>1057</v>
+        <v>1162</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1113,24 +1079,24 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>175.61</v>
+        <v>46.61</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>732.8</v>
+        <v>774.4</v>
       </c>
       <c r="C24">
-        <v>183.2</v>
+        <v>193.6</v>
       </c>
       <c r="D24">
-        <v>36.64</v>
+        <v>38.72</v>
       </c>
       <c r="E24">
-        <v>1099</v>
+        <v>1162</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1139,24 +1105,24 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>208.33</v>
+        <v>172.56</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>469.6</v>
+        <v>704.96</v>
       </c>
       <c r="C25">
-        <v>117.4</v>
+        <v>176.24</v>
       </c>
       <c r="D25">
-        <v>23.48</v>
+        <v>35.25</v>
       </c>
       <c r="E25">
-        <v>704</v>
+        <v>1057</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1165,12 +1131,12 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>175.61</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>732.8</v>
@@ -1191,40 +1157,92 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>208.33</v>
       </c>
     </row>
     <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
       <c r="B27">
+        <v>469.6</v>
+      </c>
+      <c r="C27">
+        <v>117.4</v>
+      </c>
+      <c r="D27">
+        <v>23.48</v>
+      </c>
+      <c r="E27">
+        <v>704</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>732.8</v>
+      </c>
+      <c r="C28">
+        <v>183.2</v>
+      </c>
+      <c r="D28">
+        <v>36.64</v>
+      </c>
+      <c r="E28">
+        <v>1099</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29">
         <v>12361.76</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>3090.44</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>618.07000000000005</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>18539</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>874.62</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>33</v>
       </c>
     </row>
